--- a/CodeCleanupTasks.xlsx
+++ b/CodeCleanupTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Android\AKU\COVID_Hayat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB5A398-7390-4AAC-8E26-C2D820119204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDC0702-B8D6-4A19-9A86-DEC8F6433D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5688EA0B-470F-4C16-9F58-AED4A9AC50BF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{5688EA0B-470F-4C16-9F58-AED4A9AC50BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
   <si>
     <t xml:space="preserve">Java Activity </t>
   </si>
@@ -261,6 +261,93 @@
   </si>
   <si>
     <t>Child_AamMalomatForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_child_virus_record_list</t>
+  </si>
+  <si>
+    <t>Child_CVirusRecordList_Activity</t>
+  </si>
+  <si>
+    <t>activity_child_virus_form</t>
+  </si>
+  <si>
+    <t>Child_CVirusFormView_Activity</t>
+  </si>
+  <si>
+    <t>simple_spinner_dropdown_item</t>
+  </si>
+  <si>
+    <t>sp_health_facility_layout</t>
+  </si>
+  <si>
+    <t>activity_child_bemaari_record_list</t>
+  </si>
+  <si>
+    <t>Child_BemaariRecordList_Activity</t>
+  </si>
+  <si>
+    <t>activity_child_bemaari_record_form</t>
+  </si>
+  <si>
+    <t>Child_BemaariRecordFormView_Activity</t>
+  </si>
+  <si>
+    <t>Child_CVirusForm_Activity</t>
+  </si>
+  <si>
+    <t>Child_BemaariRecordForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_child_hifaziti_teekey_record_list</t>
+  </si>
+  <si>
+    <t>Child_HifazitiTeekeyRecordList_Activity</t>
+  </si>
+  <si>
+    <t>dialog_vaccine_ko_anjaam_dy_layout</t>
+  </si>
+  <si>
+    <t>dialog_vaccine_ko_anjaam_dy_layout_vac</t>
+  </si>
+  <si>
+    <t>spinner_azdawaji_hasiyat_layout</t>
+  </si>
+  <si>
+    <t>temp_list</t>
+  </si>
+  <si>
+    <t>Child_HifazitiTeekeyGroupList_Activity</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>activity_child_hifaziti_teekey_vaccine_ko_anjam_dy</t>
+  </si>
+  <si>
+    <t>Child_HifazitiTeekeyVaccineKoAnjamDy_2_Activity</t>
+  </si>
+  <si>
+    <t>activity_child_hifaziti_teekey_phele_sy_li_hoe_vaccine_form</t>
+  </si>
+  <si>
+    <t>Child_HifazitiTeekeyPheleSyLiHoeVaccineForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_child_hifaziti_teekey_vaccine_ko_anjam_dy_2</t>
+  </si>
+  <si>
+    <t>Child_HifazitiTeekeyVaccineKoAnjamDy_3_Activity</t>
+  </si>
+  <si>
+    <t>Child_HifazitiTeekeyKahiAurSyLiHoe_Activity</t>
+  </si>
+  <si>
+    <t>dialog_phele_sy_li_hoe_vaccines_layout</t>
+  </si>
+  <si>
+    <t>Child_HifazitiTeekeyRecordList2_Activity</t>
   </si>
 </sst>
 </file>
@@ -622,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628E6F2E-C8B2-4CA3-B672-8F8E8A940C66}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,6 +1053,178 @@
         <v>70</v>
       </c>
     </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CodeCleanupTasks.xlsx
+++ b/CodeCleanupTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Android\AKU\COVID_Hayat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDC0702-B8D6-4A19-9A86-DEC8F6433D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690645E5-3384-4652-92EA-F3D1BE7298BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{5688EA0B-470F-4C16-9F58-AED4A9AC50BF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="158">
   <si>
     <t xml:space="preserve">Java Activity </t>
   </si>
@@ -348,6 +348,165 @@
   </si>
   <si>
     <t>Child_HifazitiTeekeyRecordList2_Activity</t>
+  </si>
+  <si>
+    <t>activity_child_nasho_numa_record_list</t>
+  </si>
+  <si>
+    <t>Child_NashoNumaRecordList_Activity</t>
+  </si>
+  <si>
+    <t>activity_child_nasho_numa_growth_line_graph</t>
+  </si>
+  <si>
+    <t>Child_NashoNumaGrowthLineGraph_Activity_Boy</t>
+  </si>
+  <si>
+    <t>activity_child_nasho_numa_growth_chart</t>
+  </si>
+  <si>
+    <t>Child_NashoNumaGrowthChart_Activity</t>
+  </si>
+  <si>
+    <t>activity_child_nasho_numa_form</t>
+  </si>
+  <si>
+    <t>Child_NashoNumaFormLive_Activity</t>
+  </si>
+  <si>
+    <t>Child_NashoNumaForm_Activity</t>
+  </si>
+  <si>
+    <t>Child_NashoNumaGrowthLineGraph_Activity_Girl</t>
+  </si>
+  <si>
+    <t>activity_child_dashboard</t>
+  </si>
+  <si>
+    <t>Child_Dashboard_Activity</t>
+  </si>
+  <si>
+    <t>activity_child_refferal_record_list</t>
+  </si>
+  <si>
+    <t>Child_RefferalRecordList_Activity</t>
+  </si>
+  <si>
+    <t>activity_child_refferal_form</t>
+  </si>
+  <si>
+    <t>Child_RefferalFormView_Activity</t>
+  </si>
+  <si>
+    <t>sp_title_referral_reason_layout</t>
+  </si>
+  <si>
+    <t>Child_RefferalForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_child_profile</t>
+  </si>
+  <si>
+    <t>Child_ProfileView_Activity</t>
+  </si>
+  <si>
+    <t>Child_Profile_Activity</t>
+  </si>
+  <si>
+    <t>Male_RefferalFormView_Activity</t>
+  </si>
+  <si>
+    <t>Male_RefferalForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_profile</t>
+  </si>
+  <si>
+    <t>AboveTwoMaleProfile_Activity</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>activity_mother_dashboard</t>
+  </si>
+  <si>
+    <t>Male_Dashboard_Activity</t>
+  </si>
+  <si>
+    <t>Male_RefferalRecordList_Activity</t>
+  </si>
+  <si>
+    <t>activity_male_bemaari_form</t>
+  </si>
+  <si>
+    <t>Male_BemaariFormView_Activity</t>
+  </si>
+  <si>
+    <t>activity_male_bemaari_record_list</t>
+  </si>
+  <si>
+    <t>Male_BemaariRecordList_Activity</t>
+  </si>
+  <si>
+    <t>Male_BemaariForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_aam_malomat_record_list</t>
+  </si>
+  <si>
+    <t>Mother_AamMalomatRecordList_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_aam_malomat_form</t>
+  </si>
+  <si>
+    <t>Mother_AamMalomatFormView_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_bemaari_form</t>
+  </si>
+  <si>
+    <t>Mother_BemaariFormView_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_bemaari_record_list</t>
+  </si>
+  <si>
+    <t>Mother_BemaariRecordList_Activity</t>
+  </si>
+  <si>
+    <t>Mother_BemaariForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_virus_record_list</t>
+  </si>
+  <si>
+    <t>Mother_CVirusRecordList_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_virus_form</t>
+  </si>
+  <si>
+    <t>Mother_CVirusFormView_Activity</t>
+  </si>
+  <si>
+    <t>Mother_CVirusForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_bad_az_pedaish_form</t>
+  </si>
+  <si>
+    <t>Mother_BadAzPedaishFormView_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_bad_az_pedaish_list</t>
+  </si>
+  <si>
+    <t>Mother_BadAzPedaishList_Activity</t>
+  </si>
+  <si>
+    <t>Mother_BadAzPedaishForm_Activity</t>
   </si>
 </sst>
 </file>
@@ -709,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628E6F2E-C8B2-4CA3-B672-8F8E8A940C66}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,6 +1384,342 @@
         <v>88</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>141</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>149</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>151</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>152</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CodeCleanupTasks.xlsx
+++ b/CodeCleanupTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Android\AKU\COVID_Hayat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690645E5-3384-4652-92EA-F3D1BE7298BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15691CED-D9BE-41A3-B2FF-DFA2D5A9336C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{5688EA0B-470F-4C16-9F58-AED4A9AC50BF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="245">
   <si>
     <t xml:space="preserve">Java Activity </t>
   </si>
@@ -507,13 +507,274 @@
   </si>
   <si>
     <t>Mother_BadAzPedaishForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_qabal_az_pedaish_dorah_form</t>
+  </si>
+  <si>
+    <t>Mother_QabalAzPedaishDorahFormView_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_qabal_az_pedaish_form</t>
+  </si>
+  <si>
+    <t>Mother_QabalAzPedaishForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_qabal_az_pedaish_health_center_dorah_form</t>
+  </si>
+  <si>
+    <t>Mother_QabalAzPedaishHealthCenterDorahFormView_Activity</t>
+  </si>
+  <si>
+    <t>Mother_QabalAzPedaishDorahForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_qabal_az_pedaish_list</t>
+  </si>
+  <si>
+    <t>Mother_QabalAzPedaishList_Activity</t>
+  </si>
+  <si>
+    <t>dialog_mother_qabal_az_pedaish_form_button_layout</t>
+  </si>
+  <si>
+    <t>Mother_QabalAzPedaishHealthCenterDorahForm_Activity</t>
+  </si>
+  <si>
+    <t>Mother_QabalAzPedaishFormView_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_zichgi_list</t>
+  </si>
+  <si>
+    <t>Mother_ZichgiList_Activity</t>
+  </si>
+  <si>
+    <t>dialog_mother_zichgi_button_layout</t>
+  </si>
+  <si>
+    <t>activity_mother_zichgi_ki_mansobabandi_form</t>
+  </si>
+  <si>
+    <t>Mother_ZichgiKiMansobabandiFormView_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_bachey_ki_zichgi_form</t>
+  </si>
+  <si>
+    <t>Mother_BacheyKiZichgiFormView_Activity</t>
+  </si>
+  <si>
+    <t>Mother_ZichgiKiMansobabandiForm_Activity</t>
+  </si>
+  <si>
+    <t>Mother_BacheyKiZichgiForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_hifaziti_teekey_phele_sy_li_hoe_vaccine_form</t>
+  </si>
+  <si>
+    <t>Mother_HifazitiTeekeyPheleSyLiHoeVaccineForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_hifaziti_teekey_record_list</t>
+  </si>
+  <si>
+    <t>Mother_HifazitiTeekeyKahiAurSyLiHoe_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_haamla_record_list</t>
+  </si>
+  <si>
+    <t>Mother_HaamlaRecordList_Activity</t>
+  </si>
+  <si>
+    <t>dialog_mother_haamla_record_lmpdate_layout</t>
+  </si>
+  <si>
+    <t>dialog_delete_yes_no_layout</t>
+  </si>
+  <si>
+    <t>activity_mother_haamla_dashboard</t>
+  </si>
+  <si>
+    <t>Mother_HaamlaDashboard_Activity</t>
+  </si>
+  <si>
+    <t>dialog_mpregnancy_inactive_layout</t>
+  </si>
+  <si>
+    <t>activity_mother_hifaziti_teekey_record_form</t>
+  </si>
+  <si>
+    <t>Mother_HifazitiTeekeyRecordFormView_Activity</t>
+  </si>
+  <si>
+    <t>dialog_vaccine_ko_anjaam_dy_layout_lhw</t>
+  </si>
+  <si>
+    <t>Mother_HifazitiTeekeyRecordList_Activity</t>
+  </si>
+  <si>
+    <t>Mother_HifazitiTeekeyRecordList_Activity2</t>
+  </si>
+  <si>
+    <t>Mother_HifazitiTeekeyRecordForm_Activity</t>
+  </si>
+  <si>
+    <t>Mother_Profile_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_khandani_mansobabandi_list</t>
+  </si>
+  <si>
+    <t>Mother_KhandaniMansobabandiList_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_khandani_mansobabandi_form</t>
+  </si>
+  <si>
+    <t>Mother_KhandaniMansobabandiFormView_Activity</t>
+  </si>
+  <si>
+    <t>Mother_KhandaniMansobabandiForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_hifaziti_teekey_vaccine_ko_anjam_dy</t>
+  </si>
+  <si>
+    <t>Mother_HifazitiTeekeyVaccineKoAnjamDy_Activity</t>
+  </si>
+  <si>
+    <t>activity_add_new_patient_layout</t>
+  </si>
+  <si>
+    <t>AddNewPatientForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_refferal_form</t>
+  </si>
+  <si>
+    <t>Mother_RefferalFormView_Activity</t>
+  </si>
+  <si>
+    <t>Mother_Dashboard_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_refferal_list</t>
+  </si>
+  <si>
+    <t>Mother_RefferalList_Activity</t>
+  </si>
+  <si>
+    <t>Mother_RefferalForm_Activity</t>
+  </si>
+  <si>
+    <t>fragment_patient_list</t>
+  </si>
+  <si>
+    <t>PatientList_Fragment</t>
+  </si>
+  <si>
+    <t>activity_lhw_monthly_report</t>
+  </si>
+  <si>
+    <t>LHW_MonthlyReport_Activity</t>
+  </si>
+  <si>
+    <t>activity_lhw_covid_tab</t>
+  </si>
+  <si>
+    <t>LHW_CovidTabActivity</t>
+  </si>
+  <si>
+    <t>fragment_total_and_refer_patient</t>
+  </si>
+  <si>
+    <t>TotalAndReferPatient_Fragment</t>
+  </si>
+  <si>
+    <t>dialog_total_and_refer_patient_layout</t>
+  </si>
+  <si>
+    <t>AddNewPatientFormView_Activity</t>
+  </si>
+  <si>
+    <t>activity_add__family__member_</t>
+  </si>
+  <si>
+    <t>Add_Family_Member_Activity</t>
+  </si>
+  <si>
+    <t>dialog_dou_saal_sy_kum_umer_layout</t>
+  </si>
+  <si>
+    <t>activity_lhw__refer</t>
+  </si>
+  <si>
+    <t>LHW_ReferTabActivity</t>
+  </si>
+  <si>
+    <t>fragment_not_followup</t>
+  </si>
+  <si>
+    <t>NotFollowUp_Fragment</t>
+  </si>
+  <si>
+    <t>FollowUp_Fragment</t>
+  </si>
+  <si>
+    <t>fragment_followup</t>
+  </si>
+  <si>
+    <t>AboveTwo_Register_Activity</t>
+  </si>
+  <si>
+    <t>activity_abovetwo_register_</t>
+  </si>
+  <si>
+    <t>activity_search_qrcode</t>
+  </si>
+  <si>
+    <t>Register_QRCode_Activity</t>
+  </si>
+  <si>
+    <t>custom_dialog_title_layout</t>
+  </si>
+  <si>
+    <t>activity_register_</t>
+  </si>
+  <si>
+    <t>Register_House</t>
+  </si>
+  <si>
+    <t>spinner_tehseel_layout</t>
+  </si>
+  <si>
+    <t>activity_lhw__register_house_view</t>
+  </si>
+  <si>
+    <t>LHW_RegisterHouseView_Activity</t>
+  </si>
+  <si>
+    <t>activity_child_register_</t>
+  </si>
+  <si>
+    <t>ChildRegister_Activity</t>
+  </si>
+  <si>
+    <t>activity_mother_register_</t>
+  </si>
+  <si>
+    <t>MotherRegister_Activity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +786,12 @@
       <i/>
       <sz val="9.8000000000000007"/>
       <color rgb="FF871094"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF067D17"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -549,9 +816,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -868,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628E6F2E-C8B2-4CA3-B672-8F8E8A940C66}">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +1159,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -897,7 +1167,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -905,7 +1175,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -913,7 +1183,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -921,7 +1191,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -929,7 +1199,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -937,7 +1207,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -945,7 +1215,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -953,7 +1223,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -961,7 +1231,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -969,7 +1239,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -977,7 +1247,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -985,7 +1255,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -993,7 +1263,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1001,7 +1271,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1009,7 +1279,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1017,7 +1287,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1025,7 +1295,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1033,7 +1303,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1041,7 +1311,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1049,7 +1319,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1057,7 +1327,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1065,7 +1335,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1073,7 +1343,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1081,7 +1351,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1089,7 +1359,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1097,7 +1367,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1105,7 +1375,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1113,7 +1383,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1121,7 +1391,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1129,7 +1399,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1137,12 +1407,13 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1150,12 +1421,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1163,7 +1435,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1171,12 +1443,13 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1184,7 +1457,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1192,12 +1465,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1205,7 +1479,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1213,7 +1487,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1221,7 +1495,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1229,17 +1503,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1247,7 +1523,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1255,7 +1531,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1263,12 +1539,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1276,7 +1553,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1284,27 +1561,31 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1312,7 +1593,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1320,17 +1601,19 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -1338,12 +1621,13 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1351,7 +1635,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -1359,12 +1643,13 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -1372,12 +1657,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -1385,7 +1671,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -1393,7 +1679,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -1401,7 +1687,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -1409,7 +1695,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -1417,7 +1703,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -1425,7 +1711,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -1433,7 +1719,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -1441,7 +1727,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -1449,7 +1735,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -1457,22 +1743,25 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
       <c r="B82" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -1480,17 +1769,19 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -1498,12 +1789,13 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -1511,17 +1803,19 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -1529,17 +1823,19 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -1547,17 +1843,19 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -1565,22 +1863,25 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
       <c r="B99" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -1588,7 +1889,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -1596,7 +1897,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -1604,12 +1905,13 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -1617,7 +1919,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -1625,7 +1927,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -1633,7 +1935,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -1641,7 +1943,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -1649,7 +1951,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -1657,7 +1959,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -1665,7 +1967,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -1673,7 +1975,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -1681,7 +1983,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -1689,7 +1991,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -1697,7 +1999,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -1705,7 +2007,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -1713,12 +2015,1037 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>153</v>
       </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+      <c r="B140" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+      <c r="B144" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+      <c r="B145" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+      <c r="B149" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+      <c r="B173" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+      <c r="B175" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="2"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="2"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="2"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="2"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="2"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="2"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="2"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="2"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="2"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="2"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="2"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="2"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="2"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="2"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="2"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="2"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="2"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="2"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="2"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="2"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="2"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="2"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="2"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="2"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="2"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="2"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="2"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="2"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="2"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="2"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="2"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="2"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="2"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="2"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="2"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="2"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="2"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="2"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="2"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="2"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="2"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="2"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="2"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="2"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="2"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="2"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="2"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="2"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="2"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="2"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="2"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="2"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="2"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="2"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="2"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="2"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="2"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="2"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="2"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="2"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="2"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="2"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="2"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="2"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="2"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="2"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="2"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="2"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodeCleanupTasks.xlsx
+++ b/CodeCleanupTasks.xlsx
@@ -1,39 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Android\AKU\COVID_Hayat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15691CED-D9BE-41A3-B2FF-DFA2D5A9336C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{5688EA0B-470F-4C16-9F58-AED4A9AC50BF}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj3b9AUsdW5UgaC6ILX4l+H+lNAOA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="286">
   <si>
     <t xml:space="preserve">Java Activity </t>
   </si>
@@ -65,12 +48,12 @@
     <t>custom_lv_child_refferal_record_list_layout</t>
   </si>
   <si>
+    <t>Adt_ChildNashoNumaRecordList.java</t>
+  </si>
+  <si>
     <t>custom_lv_child_nashonuma_record_list_layout</t>
   </si>
   <si>
-    <t>Adt_ChildNashoNumaRecordList.java</t>
-  </si>
-  <si>
     <t>Adt_ChildHifazitiTeekeyRecordList_DueDate.java</t>
   </si>
   <si>
@@ -83,264 +66,264 @@
     <t>Adt_ChildHifazitiTeekeyRecordList.java</t>
   </si>
   <si>
+    <t>Adt_MotherZichgiRecordList.java</t>
+  </si>
+  <si>
     <t>custom_lv_mother_zichgi_record_list_layout</t>
   </si>
   <si>
-    <t>Adt_MotherZichgiRecordList.java</t>
+    <t>Adt_MotherQabalAzPedaishRecordList.java</t>
   </si>
   <si>
     <t>custom_lv_mother_qabalazpedaish_record_list_layout</t>
   </si>
   <si>
-    <t>Adt_MotherQabalAzPedaishRecordList.java</t>
+    <t>Adt_MotherBadAzPedaishRecordList.java</t>
   </si>
   <si>
     <t>custom_lv_mother_badazpedaish_record_list_layout</t>
   </si>
   <si>
-    <t>Adt_MotherBadAzPedaishRecordList.java</t>
+    <t>Adt_TotalAndReferPatients</t>
   </si>
   <si>
     <t>custom_total_and_refer_pat_layout</t>
   </si>
   <si>
-    <t>Adt_TotalAndReferPatients</t>
+    <t>Adt_PatientList</t>
   </si>
   <si>
     <t>custom_patient_list_layout</t>
   </si>
   <si>
-    <t>Adt_PatientList</t>
+    <t>Adt_MotherVaccineList</t>
   </si>
   <si>
     <t>custom_lv_mother_vaccine_list_layout</t>
   </si>
   <si>
-    <t>Adt_MotherVaccineList</t>
+    <t>Adt_MotherKhandaniMansobabandiRecordList</t>
   </si>
   <si>
     <t>custom_lv_mother_khandani_mansobabandi_record_list_layout</t>
   </si>
   <si>
-    <t>Adt_MotherKhandaniMansobabandiRecordList</t>
+    <t>Adt_MotherHifazitiTeekeyRecordList</t>
   </si>
   <si>
     <t>custom_lv_mother_hifaziti_teekey_record_list_layout</t>
   </si>
   <si>
-    <t>Adt_MotherHifazitiTeekeyRecordList</t>
+    <t>Adt_MotherHaamlaRecordList</t>
   </si>
   <si>
     <t>custom_lv_mother_haamla_record_list_layout</t>
   </si>
   <si>
-    <t>Adt_MotherHaamlaRecordList</t>
+    <t>Adt_MotherBemaariRecordList</t>
   </si>
   <si>
     <t>custom_lv_mother_bemaari_record_list_layout</t>
   </si>
   <si>
-    <t>Adt_MotherBemaariRecordList</t>
+    <t>Adt_MotherAamMalomatRecordList</t>
   </si>
   <si>
     <t>custom_lv_mother_aam_malomat_record_list_layout</t>
   </si>
   <si>
-    <t>Adt_MotherAamMalomatRecordList</t>
+    <t>Adt_MeetingRecordList</t>
   </si>
   <si>
     <t>custom_lv_meeting_layout</t>
   </si>
   <si>
-    <t>Adt_MeetingRecordList</t>
+    <t>Adt_HESStartMeetingList</t>
   </si>
   <si>
     <t>custom_lv_hes_start_meeting_list_layout</t>
   </si>
   <si>
-    <t>Adt_HESStartMeetingList</t>
+    <t>Adt_HESchoolList</t>
   </si>
   <si>
     <t>custom_lv_hes_school_list_layout</t>
   </si>
   <si>
-    <t>Adt_HESchoolList</t>
+    <t>Adt_HCMStartMeetingList</t>
   </si>
   <si>
     <t>custom_lv_hcm_start_meeting_list_layout</t>
   </si>
   <si>
-    <t>Adt_HCMStartMeetingList</t>
+    <t>Adt_HCMMembeList</t>
   </si>
   <si>
     <t>custom_lv_hcm_member_list_layout</t>
   </si>
   <si>
-    <t>Adt_HCMMembeList</t>
+    <t>Adt_SearchKhandanList</t>
   </si>
   <si>
     <t>custom_lv_search_khandan_number_list_layout</t>
   </si>
   <si>
-    <t>Adt_SearchKhandanList</t>
+    <t>Adt_SearchFamilyMembersList</t>
   </si>
   <si>
     <t>custom_lv_search_family_member_list_layout</t>
   </si>
   <si>
-    <t>Adt_SearchFamilyMembersList</t>
+    <t>Adt_NotFollowUpExpandableList</t>
   </si>
   <si>
     <t>custom_lv_not_followup_child_layout</t>
   </si>
   <si>
-    <t>Adt_NotFollowUpExpandableList</t>
-  </si>
-  <si>
     <t>Practise_Adptr</t>
   </si>
   <si>
+    <t>CustomerAdapter</t>
+  </si>
+  <si>
     <t>spinner_jins_layout</t>
   </si>
   <si>
-    <t>CustomerAdapter</t>
+    <t>Adt_VACSearchVillages</t>
   </si>
   <si>
     <t>custom_lv_item_main_search</t>
   </si>
   <si>
-    <t>Adt_VACSearchVillages</t>
+    <t>Adt_VACExpandableList</t>
   </si>
   <si>
     <t>custom_lv_gaon_talash_kre_red_layout</t>
   </si>
   <si>
-    <t>Adt_VACExpandableList</t>
-  </si>
-  <si>
     <t>list_group</t>
   </si>
   <si>
+    <t>Adt_VAC_StatsExpandableList</t>
+  </si>
+  <si>
     <t>custom_stats_child_layout_vac</t>
   </si>
   <si>
-    <t>Adt_VAC_StatsExpandableList</t>
-  </si>
-  <si>
     <t>custom_stats_parent_list_vac</t>
   </si>
   <si>
     <t>Adt_SearchVillages</t>
   </si>
   <si>
+    <t>Adt_LHW_StatsExpandableList</t>
+  </si>
+  <si>
     <t>custom_stats_child_layout</t>
   </si>
   <si>
-    <t>Adt_LHW_StatsExpandableList</t>
-  </si>
-  <si>
     <t>custom_stats_parent_list</t>
   </si>
   <si>
     <t>Adt_Homepage</t>
   </si>
   <si>
+    <t>Child_AamMalomatFormView_Activity</t>
+  </si>
+  <si>
     <t>activity_child_aam_malomat_form</t>
   </si>
   <si>
-    <t>Child_AamMalomatFormView_Activity</t>
-  </si>
-  <si>
     <t>lay_dialog_loading3</t>
   </si>
   <si>
+    <t>Child_AamMalomatRecordList_Activity</t>
+  </si>
+  <si>
     <t>activity_child_aam_malomat_record_list</t>
   </si>
   <si>
-    <t>Child_AamMalomatRecordList_Activity</t>
-  </si>
-  <si>
     <t>Child_AamMalomatForm_Activity</t>
   </si>
   <si>
+    <t>Child_CVirusRecordList_Activity</t>
+  </si>
+  <si>
     <t>activity_child_virus_record_list</t>
   </si>
   <si>
-    <t>Child_CVirusRecordList_Activity</t>
+    <t>Child_CVirusFormView_Activity</t>
   </si>
   <si>
     <t>activity_child_virus_form</t>
   </si>
   <si>
-    <t>Child_CVirusFormView_Activity</t>
-  </si>
-  <si>
     <t>simple_spinner_dropdown_item</t>
   </si>
   <si>
     <t>sp_health_facility_layout</t>
   </si>
   <si>
+    <t>Child_BemaariRecordList_Activity</t>
+  </si>
+  <si>
     <t>activity_child_bemaari_record_list</t>
   </si>
   <si>
-    <t>Child_BemaariRecordList_Activity</t>
+    <t>Child_BemaariRecordFormView_Activity</t>
   </si>
   <si>
     <t>activity_child_bemaari_record_form</t>
   </si>
   <si>
-    <t>Child_BemaariRecordFormView_Activity</t>
-  </si>
-  <si>
     <t>Child_CVirusForm_Activity</t>
   </si>
   <si>
     <t>Child_BemaariRecordForm_Activity</t>
   </si>
   <si>
+    <t>Child_HifazitiTeekeyRecordList_Activity</t>
+  </si>
+  <si>
     <t>activity_child_hifaziti_teekey_record_list</t>
   </si>
   <si>
-    <t>Child_HifazitiTeekeyRecordList_Activity</t>
-  </si>
-  <si>
     <t>dialog_vaccine_ko_anjaam_dy_layout</t>
   </si>
   <si>
+    <t>spinner_azdawaji_hasiyat_layout</t>
+  </si>
+  <si>
     <t>dialog_vaccine_ko_anjaam_dy_layout_vac</t>
   </si>
   <si>
-    <t>spinner_azdawaji_hasiyat_layout</t>
+    <t>Child_HifazitiTeekeyGroupList_Activity</t>
   </si>
   <si>
     <t>temp_list</t>
   </si>
   <si>
-    <t>Child_HifazitiTeekeyGroupList_Activity</t>
-  </si>
-  <si>
     <t>header</t>
   </si>
   <si>
+    <t>Child_HifazitiTeekeyVaccineKoAnjamDy_2_Activity</t>
+  </si>
+  <si>
     <t>activity_child_hifaziti_teekey_vaccine_ko_anjam_dy</t>
   </si>
   <si>
-    <t>Child_HifazitiTeekeyVaccineKoAnjamDy_2_Activity</t>
+    <t>Child_HifazitiTeekeyPheleSyLiHoeVaccineForm_Activity</t>
   </si>
   <si>
     <t>activity_child_hifaziti_teekey_phele_sy_li_hoe_vaccine_form</t>
   </si>
   <si>
-    <t>Child_HifazitiTeekeyPheleSyLiHoeVaccineForm_Activity</t>
+    <t>Child_HifazitiTeekeyVaccineKoAnjamDy_3_Activity</t>
   </si>
   <si>
     <t>activity_child_hifaziti_teekey_vaccine_ko_anjam_dy_2</t>
   </si>
   <si>
-    <t>Child_HifazitiTeekeyVaccineKoAnjamDy_3_Activity</t>
-  </si>
-  <si>
     <t>Child_HifazitiTeekeyKahiAurSyLiHoe_Activity</t>
   </si>
   <si>
@@ -350,22 +333,25 @@
     <t>Child_HifazitiTeekeyRecordList2_Activity</t>
   </si>
   <si>
+    <t>Child_NashoNumaRecordList_Activity</t>
+  </si>
+  <si>
     <t>activity_child_nasho_numa_record_list</t>
   </si>
   <si>
-    <t>Child_NashoNumaRecordList_Activity</t>
+    <t>Child_NashoNumaGrowthLineGraph_Activity_Boy</t>
   </si>
   <si>
     <t>activity_child_nasho_numa_growth_line_graph</t>
   </si>
   <si>
-    <t>Child_NashoNumaGrowthLineGraph_Activity_Boy</t>
+    <t>Child_NashoNumaGrowthChart_Activity</t>
   </si>
   <si>
     <t>activity_child_nasho_numa_growth_chart</t>
   </si>
   <si>
-    <t>Child_NashoNumaGrowthChart_Activity</t>
+    <t>Child_NashoNumaForm_Activity</t>
   </si>
   <si>
     <t>activity_child_nasho_numa_form</t>
@@ -374,42 +360,39 @@
     <t>Child_NashoNumaFormLive_Activity</t>
   </si>
   <si>
-    <t>Child_NashoNumaForm_Activity</t>
-  </si>
-  <si>
     <t>Child_NashoNumaGrowthLineGraph_Activity_Girl</t>
   </si>
   <si>
+    <t>Child_Dashboard_Activity</t>
+  </si>
+  <si>
     <t>activity_child_dashboard</t>
   </si>
   <si>
-    <t>Child_Dashboard_Activity</t>
+    <t>Child_RefferalRecordList_Activity</t>
   </si>
   <si>
     <t>activity_child_refferal_record_list</t>
   </si>
   <si>
-    <t>Child_RefferalRecordList_Activity</t>
+    <t>Child_RefferalFormView_Activity</t>
   </si>
   <si>
     <t>activity_child_refferal_form</t>
   </si>
   <si>
-    <t>Child_RefferalFormView_Activity</t>
-  </si>
-  <si>
     <t>sp_title_referral_reason_layout</t>
   </si>
   <si>
     <t>Child_RefferalForm_Activity</t>
   </si>
   <si>
+    <t>Child_ProfileView_Activity</t>
+  </si>
+  <si>
     <t>activity_child_profile</t>
   </si>
   <si>
-    <t>Child_ProfileView_Activity</t>
-  </si>
-  <si>
     <t>Child_Profile_Activity</t>
   </si>
   <si>
@@ -419,204 +402,204 @@
     <t>Male_RefferalForm_Activity</t>
   </si>
   <si>
+    <t>AboveTwoMaleProfile_Activity</t>
+  </si>
+  <si>
     <t>activity_mother_profile</t>
   </si>
   <si>
-    <t>AboveTwoMaleProfile_Activity</t>
-  </si>
-  <si>
     <t>temp</t>
   </si>
   <si>
+    <t>Male_Dashboard_Activity</t>
+  </si>
+  <si>
     <t>activity_mother_dashboard</t>
   </si>
   <si>
-    <t>Male_Dashboard_Activity</t>
-  </si>
-  <si>
     <t>Male_RefferalRecordList_Activity</t>
   </si>
   <si>
+    <t>Male_BemaariFormView_Activity</t>
+  </si>
+  <si>
     <t>activity_male_bemaari_form</t>
   </si>
   <si>
-    <t>Male_BemaariFormView_Activity</t>
+    <t>Male_BemaariRecordList_Activity</t>
   </si>
   <si>
     <t>activity_male_bemaari_record_list</t>
   </si>
   <si>
-    <t>Male_BemaariRecordList_Activity</t>
-  </si>
-  <si>
     <t>Male_BemaariForm_Activity</t>
   </si>
   <si>
+    <t>Mother_AamMalomatRecordList_Activity</t>
+  </si>
+  <si>
     <t>activity_mother_aam_malomat_record_list</t>
   </si>
   <si>
-    <t>Mother_AamMalomatRecordList_Activity</t>
+    <t>Mother_AamMalomatFormView_Activity</t>
   </si>
   <si>
     <t>activity_mother_aam_malomat_form</t>
   </si>
   <si>
-    <t>Mother_AamMalomatFormView_Activity</t>
+    <t>Mother_BemaariFormView_Activity</t>
   </si>
   <si>
     <t>activity_mother_bemaari_form</t>
   </si>
   <si>
-    <t>Mother_BemaariFormView_Activity</t>
+    <t>Mother_BemaariRecordList_Activity</t>
   </si>
   <si>
     <t>activity_mother_bemaari_record_list</t>
   </si>
   <si>
-    <t>Mother_BemaariRecordList_Activity</t>
-  </si>
-  <si>
     <t>Mother_BemaariForm_Activity</t>
   </si>
   <si>
+    <t>Mother_CVirusRecordList_Activity</t>
+  </si>
+  <si>
     <t>activity_mother_virus_record_list</t>
   </si>
   <si>
-    <t>Mother_CVirusRecordList_Activity</t>
+    <t>Mother_CVirusFormView_Activity</t>
   </si>
   <si>
     <t>activity_mother_virus_form</t>
   </si>
   <si>
-    <t>Mother_CVirusFormView_Activity</t>
-  </si>
-  <si>
     <t>Mother_CVirusForm_Activity</t>
   </si>
   <si>
+    <t>Mother_BadAzPedaishFormView_Activity</t>
+  </si>
+  <si>
     <t>activity_mother_bad_az_pedaish_form</t>
   </si>
   <si>
-    <t>Mother_BadAzPedaishFormView_Activity</t>
+    <t>Mother_BadAzPedaishList_Activity</t>
   </si>
   <si>
     <t>activity_mother_bad_az_pedaish_list</t>
   </si>
   <si>
-    <t>Mother_BadAzPedaishList_Activity</t>
-  </si>
-  <si>
     <t>Mother_BadAzPedaishForm_Activity</t>
   </si>
   <si>
+    <t>Mother_QabalAzPedaishDorahFormView_Activity</t>
+  </si>
+  <si>
     <t>activity_mother_qabal_az_pedaish_dorah_form</t>
   </si>
   <si>
-    <t>Mother_QabalAzPedaishDorahFormView_Activity</t>
+    <t>Mother_QabalAzPedaishForm_Activity</t>
   </si>
   <si>
     <t>activity_mother_qabal_az_pedaish_form</t>
   </si>
   <si>
-    <t>Mother_QabalAzPedaishForm_Activity</t>
+    <t>Mother_QabalAzPedaishHealthCenterDorahFormView_Activity</t>
   </si>
   <si>
     <t>activity_mother_qabal_az_pedaish_health_center_dorah_form</t>
   </si>
   <si>
-    <t>Mother_QabalAzPedaishHealthCenterDorahFormView_Activity</t>
+    <t>Mother_QabalAzPedaishHealthCenterDorahForm_Activity</t>
   </si>
   <si>
     <t>Mother_QabalAzPedaishDorahForm_Activity</t>
   </si>
   <si>
+    <t>Mother_QabalAzPedaishList_Activity</t>
+  </si>
+  <si>
     <t>activity_mother_qabal_az_pedaish_list</t>
   </si>
   <si>
-    <t>Mother_QabalAzPedaishList_Activity</t>
+    <t>Mother_QabalAzPedaishFormView_Activity</t>
   </si>
   <si>
     <t>dialog_mother_qabal_az_pedaish_form_button_layout</t>
   </si>
   <si>
-    <t>Mother_QabalAzPedaishHealthCenterDorahForm_Activity</t>
-  </si>
-  <si>
-    <t>Mother_QabalAzPedaishFormView_Activity</t>
+    <t>Mother_ZichgiList_Activity</t>
   </si>
   <si>
     <t>activity_mother_zichgi_list</t>
   </si>
   <si>
-    <t>Mother_ZichgiList_Activity</t>
-  </si>
-  <si>
     <t>dialog_mother_zichgi_button_layout</t>
   </si>
   <si>
+    <t>Mother_ZichgiKiMansobabandiFormView_Activity</t>
+  </si>
+  <si>
     <t>activity_mother_zichgi_ki_mansobabandi_form</t>
   </si>
   <si>
-    <t>Mother_ZichgiKiMansobabandiFormView_Activity</t>
+    <t>Mother_BacheyKiZichgiFormView_Activity</t>
   </si>
   <si>
     <t>activity_mother_bachey_ki_zichgi_form</t>
   </si>
   <si>
-    <t>Mother_BacheyKiZichgiFormView_Activity</t>
-  </si>
-  <si>
     <t>Mother_ZichgiKiMansobabandiForm_Activity</t>
   </si>
   <si>
     <t>Mother_BacheyKiZichgiForm_Activity</t>
   </si>
   <si>
+    <t>Mother_HifazitiTeekeyPheleSyLiHoeVaccineForm_Activity</t>
+  </si>
+  <si>
     <t>activity_mother_hifaziti_teekey_phele_sy_li_hoe_vaccine_form</t>
   </si>
   <si>
-    <t>Mother_HifazitiTeekeyPheleSyLiHoeVaccineForm_Activity</t>
+    <t>Mother_HifazitiTeekeyKahiAurSyLiHoe_Activity</t>
   </si>
   <si>
     <t>activity_mother_hifaziti_teekey_record_list</t>
   </si>
   <si>
-    <t>Mother_HifazitiTeekeyKahiAurSyLiHoe_Activity</t>
+    <t>Mother_HaamlaRecordList_Activity</t>
   </si>
   <si>
     <t>activity_mother_haamla_record_list</t>
   </si>
   <si>
-    <t>Mother_HaamlaRecordList_Activity</t>
-  </si>
-  <si>
     <t>dialog_mother_haamla_record_lmpdate_layout</t>
   </si>
   <si>
     <t>dialog_delete_yes_no_layout</t>
   </si>
   <si>
+    <t>Mother_HaamlaDashboard_Activity</t>
+  </si>
+  <si>
     <t>activity_mother_haamla_dashboard</t>
   </si>
   <si>
-    <t>Mother_HaamlaDashboard_Activity</t>
-  </si>
-  <si>
     <t>dialog_mpregnancy_inactive_layout</t>
   </si>
   <si>
+    <t>Mother_HifazitiTeekeyRecordFormView_Activity</t>
+  </si>
+  <si>
     <t>activity_mother_hifaziti_teekey_record_form</t>
   </si>
   <si>
-    <t>Mother_HifazitiTeekeyRecordFormView_Activity</t>
+    <t>Mother_HifazitiTeekeyRecordList_Activity</t>
   </si>
   <si>
     <t>dialog_vaccine_ko_anjaam_dy_layout_lhw</t>
   </si>
   <si>
-    <t>Mother_HifazitiTeekeyRecordList_Activity</t>
-  </si>
-  <si>
     <t>Mother_HifazitiTeekeyRecordList_Activity2</t>
   </si>
   <si>
@@ -626,102 +609,102 @@
     <t>Mother_Profile_Activity</t>
   </si>
   <si>
+    <t>Mother_KhandaniMansobabandiList_Activity</t>
+  </si>
+  <si>
     <t>activity_mother_khandani_mansobabandi_list</t>
   </si>
   <si>
-    <t>Mother_KhandaniMansobabandiList_Activity</t>
+    <t>Mother_KhandaniMansobabandiFormView_Activity</t>
   </si>
   <si>
     <t>activity_mother_khandani_mansobabandi_form</t>
   </si>
   <si>
-    <t>Mother_KhandaniMansobabandiFormView_Activity</t>
-  </si>
-  <si>
     <t>Mother_KhandaniMansobabandiForm_Activity</t>
   </si>
   <si>
+    <t>Mother_HifazitiTeekeyVaccineKoAnjamDy_Activity</t>
+  </si>
+  <si>
     <t>activity_mother_hifaziti_teekey_vaccine_ko_anjam_dy</t>
   </si>
   <si>
-    <t>Mother_HifazitiTeekeyVaccineKoAnjamDy_Activity</t>
+    <t>AddNewPatientForm_Activity</t>
   </si>
   <si>
     <t>activity_add_new_patient_layout</t>
   </si>
   <si>
-    <t>AddNewPatientForm_Activity</t>
+    <t>Mother_RefferalFormView_Activity</t>
   </si>
   <si>
     <t>activity_mother_refferal_form</t>
   </si>
   <si>
-    <t>Mother_RefferalFormView_Activity</t>
-  </si>
-  <si>
     <t>Mother_Dashboard_Activity</t>
   </si>
   <si>
+    <t>Mother_RefferalList_Activity</t>
+  </si>
+  <si>
     <t>activity_mother_refferal_list</t>
   </si>
   <si>
-    <t>Mother_RefferalList_Activity</t>
-  </si>
-  <si>
     <t>Mother_RefferalForm_Activity</t>
   </si>
   <si>
+    <t>PatientList_Fragment</t>
+  </si>
+  <si>
     <t>fragment_patient_list</t>
   </si>
   <si>
-    <t>PatientList_Fragment</t>
+    <t>LHW_MonthlyReport_Activity</t>
   </si>
   <si>
     <t>activity_lhw_monthly_report</t>
   </si>
   <si>
-    <t>LHW_MonthlyReport_Activity</t>
+    <t>LHW_CovidTabActivity</t>
   </si>
   <si>
     <t>activity_lhw_covid_tab</t>
   </si>
   <si>
-    <t>LHW_CovidTabActivity</t>
+    <t>TotalAndReferPatient_Fragment</t>
   </si>
   <si>
     <t>fragment_total_and_refer_patient</t>
   </si>
   <si>
-    <t>TotalAndReferPatient_Fragment</t>
-  </si>
-  <si>
     <t>dialog_total_and_refer_patient_layout</t>
   </si>
   <si>
     <t>AddNewPatientFormView_Activity</t>
   </si>
   <si>
+    <t>Add_Family_Member_Activity</t>
+  </si>
+  <si>
     <t>activity_add__family__member_</t>
   </si>
   <si>
-    <t>Add_Family_Member_Activity</t>
-  </si>
-  <si>
     <t>dialog_dou_saal_sy_kum_umer_layout</t>
   </si>
   <si>
+    <t>LHW_ReferTabActivity</t>
+  </si>
+  <si>
     <t>activity_lhw__refer</t>
   </si>
   <si>
-    <t>LHW_ReferTabActivity</t>
+    <t>NotFollowUp_Fragment</t>
   </si>
   <si>
     <t>fragment_not_followup</t>
   </si>
   <si>
-    <t>NotFollowUp_Fragment</t>
-  </si>
-  <si>
     <t>FollowUp_Fragment</t>
   </si>
   <si>
@@ -734,128 +717,260 @@
     <t>activity_abovetwo_register_</t>
   </si>
   <si>
+    <t>Register_QRCode_Activity</t>
+  </si>
+  <si>
     <t>activity_search_qrcode</t>
   </si>
   <si>
-    <t>Register_QRCode_Activity</t>
-  </si>
-  <si>
     <t>custom_dialog_title_layout</t>
   </si>
   <si>
+    <t>Register_House</t>
+  </si>
+  <si>
     <t>activity_register_</t>
   </si>
   <si>
-    <t>Register_House</t>
-  </si>
-  <si>
     <t>spinner_tehseel_layout</t>
   </si>
   <si>
+    <t>LHW_RegisterHouseView_Activity</t>
+  </si>
+  <si>
     <t>activity_lhw__register_house_view</t>
   </si>
   <si>
-    <t>LHW_RegisterHouseView_Activity</t>
+    <t>ChildRegister_Activity</t>
   </si>
   <si>
     <t>activity_child_register_</t>
   </si>
   <si>
-    <t>ChildRegister_Activity</t>
+    <t>MotherRegister_Activity</t>
   </si>
   <si>
     <t>activity_mother_register_</t>
   </si>
   <si>
-    <t>MotherRegister_Activity</t>
+    <t>BelowTwo_Register_Activity</t>
+  </si>
+  <si>
+    <t>activity_belowtwo_register_</t>
+  </si>
+  <si>
+    <t>Search_QRCode_Activity</t>
+  </si>
+  <si>
+    <t>Search_FamilyMembersList</t>
+  </si>
+  <si>
+    <t>activity_search_family_members_list</t>
+  </si>
+  <si>
+    <t>dialog_move_and_delete_member_layout</t>
+  </si>
+  <si>
+    <t>dialog_bottom_sheet_layout</t>
+  </si>
+  <si>
+    <t>dialog_male_dashboard_bottomsheet_layout</t>
+  </si>
+  <si>
+    <t>Search_MemberAndKhandanList_Activity</t>
+  </si>
+  <si>
+    <t>activity_search_khandan_number_list</t>
+  </si>
+  <si>
+    <t>dialog_delete_khandan_bottom_sheet_layout</t>
+  </si>
+  <si>
+    <t>HCM_MemberList_Activity</t>
+  </si>
+  <si>
+    <t>activity_hcm_member_list</t>
+  </si>
+  <si>
+    <t>Search_WithFingerprintAndQrCode_Activity</t>
+  </si>
+  <si>
+    <t>activity_search_with_fingerprint_and_qrcode</t>
+  </si>
+  <si>
+    <t>Search_Activity</t>
+  </si>
+  <si>
+    <t>activity_search</t>
+  </si>
+  <si>
+    <t>dialog_search_with_idcard_layout</t>
+  </si>
+  <si>
+    <t>dialog_search_with_phonenumber_layout</t>
+  </si>
+  <si>
+    <t>dialog_search_with_khandannumber_layout</t>
+  </si>
+  <si>
+    <t>HES_RegisterSchoolForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_hes_register_form</t>
+  </si>
+  <si>
+    <t>HES_SchoolList_Activity</t>
+  </si>
+  <si>
+    <t>activity_hes_school_list</t>
+  </si>
+  <si>
+    <t>HCM_StartMeetingList_Activity</t>
+  </si>
+  <si>
+    <t>activity_hcm_start_meeting_list</t>
+  </si>
+  <si>
+    <t>sp_title_topic_layout</t>
+  </si>
+  <si>
+    <t>HealthCommittee_Activity</t>
+  </si>
+  <si>
+    <t>activity_health_committee</t>
+  </si>
+  <si>
+    <t>HCM_RegisterForm_Activity</t>
+  </si>
+  <si>
+    <t>activity_hcm_register_form</t>
+  </si>
+  <si>
+    <t>DownloadData_Fragment</t>
+  </si>
+  <si>
+    <t>fragment_download_data</t>
+  </si>
+  <si>
+    <t>lay_dialog_loading6</t>
+  </si>
+  <si>
+    <t>LastMonth_Fragment</t>
+  </si>
+  <si>
+    <t>fragment_last_month</t>
+  </si>
+  <si>
+    <t>UptillNow_Fragment</t>
+  </si>
+  <si>
+    <t>LHW_MedicinesStock_Activity</t>
+  </si>
+  <si>
+    <t>activity_lhw_stock</t>
+  </si>
+  <si>
+    <t>dialog_add_medicines_stocks</t>
+  </si>
+  <si>
+    <t>custom_lv_medicines_stocks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF067D17"/>
+      <name val="Consolas"/>
     </font>
     <font>
       <i/>
-      <sz val="9.8000000000000007"/>
+      <sz val="9.0"/>
       <color rgb="FF871094"/>
       <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF067D17"/>
+      <i/>
+      <color rgb="FF871094"/>
       <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -879,113 +994,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1126,1929 +1147,2678 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628E6F2E-C8B2-4CA3-B672-8F8E8A940C66}">
-  <dimension ref="A1:B369"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="51.38"/>
+    <col customWidth="1" min="2" max="2" width="53.88"/>
+    <col customWidth="1" min="3" max="26" width="7.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12">
       <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13">
       <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14">
       <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15">
       <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16">
       <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17">
       <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18">
       <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19">
       <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20">
       <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2"/>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2"/>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2"/>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2"/>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2"/>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2"/>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2"/>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2"/>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
-      <c r="B87" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
-      <c r="B89" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
-      <c r="B96" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
-      <c r="B98" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
-      <c r="B121" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="2"/>
+      <c r="B143" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
-      <c r="B144" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
-      <c r="B145" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B163" s="1" t="s">
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="2"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="2"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="2"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="2"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="2"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="2"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="2"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="2"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="2"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="2"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="2"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="2"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="2"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="2"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="2"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="2"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="2"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="2"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="2"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="2"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="2"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="2"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="2"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="2"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="2"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="2"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="2"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="2"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="2"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="2"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="2"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="2"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="2"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="2"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="2"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="2"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="2"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="2"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="2"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="2"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="2"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="2"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="2"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="2"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="2"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="2"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="2"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="2"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="2"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="2"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="2"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="2"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="2"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="2"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="2"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="2"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="2"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="2"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="2"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="2"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="2"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="2"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="2"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="2"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="2"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="2"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="2"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="2"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="2"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="2"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="2"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="2"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="2"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="2"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="2"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="2"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="2"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="2"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="2"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="2"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="2"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="2"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="2"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="2"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="2"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="2"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="2"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="2"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="2"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="2"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="2"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="2"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="2"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="2"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="2"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="2"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="2"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="2"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="2"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="2"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="2"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="2"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="2"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="2"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="2"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="2"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="2"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="2"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="2"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="2"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="2"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="2"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="2"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="2"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="2"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="2"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="2"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="2"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="2"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="2"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="2"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="2"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="2"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="2"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="2"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="2"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="2"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="2"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="2"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="2"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="2"/>
     </row>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>